--- a/PhoneBookv2/ContactSheet.xlsx
+++ b/PhoneBookv2/ContactSheet.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <x:si>
     <x:t>Name</x:t>
   </x:si>
@@ -56,6 +56,12 @@
   </x:si>
   <x:si>
     <x:t>1434861234</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ericka</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1234567</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -441,6 +447,14 @@
         <x:v>9</x:v>
       </x:c>
     </x:row>
+    <x:row r="6" spans="1:6">
+      <x:c r="A6" s="2" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B6" s="2" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
